--- a/DF_UNICOS.xlsx
+++ b/DF_UNICOS.xlsx
@@ -363,7 +363,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +413,7 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>3533</v>
+        <v>3537</v>
       </c>
     </row>
   </sheetData>

--- a/DF_UNICOS.xlsx
+++ b/DF_UNICOS.xlsx
@@ -360,13 +360,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -414,6 +418,14 @@
       </c>
       <c r="B6">
         <v>3537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2024</v>
+      </c>
+      <c r="B7">
+        <v>1851</v>
       </c>
     </row>
   </sheetData>

--- a/DF_UNICOS.xlsx
+++ b/DF_UNICOS.xlsx
@@ -363,7 +363,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +409,7 @@
         <v>2022</v>
       </c>
       <c r="B5">
-        <v>5494</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -417,7 +417,7 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>3537</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -425,7 +425,7 @@
         <v>2024</v>
       </c>
       <c r="B7">
-        <v>1851</v>
+        <v>1862</v>
       </c>
     </row>
   </sheetData>
